--- a/Code/Results/Cases/Case_2_251/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_251/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.45551294564822</v>
+        <v>15.71019891993584</v>
       </c>
       <c r="C2">
-        <v>10.69505714348206</v>
+        <v>12.60612085043198</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.39944668335997</v>
+        <v>17.08198617088914</v>
       </c>
       <c r="F2">
-        <v>25.31886479486441</v>
+        <v>35.22975175446599</v>
       </c>
       <c r="G2">
-        <v>20.99082959675264</v>
+        <v>26.41881194302372</v>
       </c>
       <c r="H2">
-        <v>8.152118707676781</v>
+        <v>13.67201851351358</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.831164626999089</v>
+        <v>7.24095835845102</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.002321974066579</v>
+        <v>12.87326636577617</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.04682383596414</v>
+        <v>17.28768089724858</v>
       </c>
       <c r="O2">
-        <v>13.30179585662863</v>
+        <v>20.50361336558248</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.08420257834409</v>
+        <v>15.22634282696266</v>
       </c>
       <c r="C3">
-        <v>10.52190763232997</v>
+        <v>12.56307518449164</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.32118013810626</v>
+        <v>17.1113394368775</v>
       </c>
       <c r="F3">
-        <v>24.67191192642309</v>
+        <v>35.23918306540212</v>
       </c>
       <c r="G3">
-        <v>20.35644233241434</v>
+        <v>26.42529109241418</v>
       </c>
       <c r="H3">
-        <v>8.169009379135899</v>
+        <v>13.71473794688386</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.804502811715184</v>
+        <v>7.235799127588362</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.70650927289636</v>
+        <v>12.84191017979012</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.13666549825685</v>
+        <v>17.3261427164476</v>
       </c>
       <c r="O3">
-        <v>13.18796489305278</v>
+        <v>20.5622702292523</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.19121526029214</v>
+        <v>14.92288244016674</v>
       </c>
       <c r="C4">
-        <v>10.41491116530839</v>
+        <v>12.53699818222509</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.27832217718026</v>
+        <v>17.13187412044775</v>
       </c>
       <c r="F4">
-        <v>24.28743339074826</v>
+        <v>35.25370401714996</v>
       </c>
       <c r="G4">
-        <v>19.98373623133275</v>
+        <v>26.4388276588916</v>
       </c>
       <c r="H4">
-        <v>8.185336939860811</v>
+        <v>13.74332395013261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.788193627397131</v>
+        <v>7.232694890052205</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.522893531971873</v>
+        <v>12.82432990772062</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.1955059406537</v>
+        <v>17.35151842529197</v>
       </c>
       <c r="O4">
-        <v>13.13067053177629</v>
+        <v>20.60313747116825</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.81442572723198</v>
+        <v>14.79780130592586</v>
       </c>
       <c r="C5">
-        <v>10.37117611582117</v>
+        <v>12.52646516292385</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.26215226167399</v>
+        <v>17.14087394816019</v>
       </c>
       <c r="F5">
-        <v>24.13413026547657</v>
+        <v>35.2618166063728</v>
       </c>
       <c r="G5">
-        <v>19.83624361140044</v>
+        <v>26.44674228369536</v>
       </c>
       <c r="H5">
-        <v>8.193434796164896</v>
+        <v>13.75556504344364</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.781564585679948</v>
+        <v>7.23144610562865</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.447677204778135</v>
+        <v>12.81759120510813</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.22039131240074</v>
+        <v>17.36230249619365</v>
       </c>
       <c r="O5">
-        <v>13.11040637137403</v>
+        <v>20.62100809660506</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.75107966047372</v>
+        <v>14.77695163452194</v>
       </c>
       <c r="C6">
-        <v>10.36390704291712</v>
+        <v>12.52472195174953</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.25954507899617</v>
+        <v>17.14240652502939</v>
       </c>
       <c r="F6">
-        <v>24.10888300011345</v>
+        <v>35.26329625284674</v>
       </c>
       <c r="G6">
-        <v>19.81202200405581</v>
+        <v>26.44820116479796</v>
       </c>
       <c r="H6">
-        <v>8.194865109471591</v>
+        <v>13.75763341513389</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.78046491791154</v>
+        <v>7.231239732292885</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.435167261623461</v>
+        <v>12.81649807662219</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.2245778351398</v>
+        <v>17.36411997569092</v>
       </c>
       <c r="O6">
-        <v>13.10722515127314</v>
+        <v>20.62404890309713</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.18618602359708</v>
+        <v>14.92120104335626</v>
       </c>
       <c r="C7">
-        <v>10.41432182677845</v>
+        <v>12.53685574516385</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.27809887806105</v>
+        <v>17.13199293700943</v>
       </c>
       <c r="F7">
-        <v>24.28535200927033</v>
+        <v>35.2538045391776</v>
       </c>
       <c r="G7">
-        <v>19.98172912528151</v>
+        <v>26.4389246957892</v>
       </c>
       <c r="H7">
-        <v>8.185440373169506</v>
+        <v>13.74348664108761</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.788104154485356</v>
+        <v>7.232677982534967</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.521880574580614</v>
+        <v>12.82423729864798</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.19583790123289</v>
+        <v>17.35166206735554</v>
       </c>
       <c r="O7">
-        <v>13.13038487353673</v>
+        <v>20.60337355778</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.9932294673181</v>
+        <v>15.54479329973182</v>
       </c>
       <c r="C8">
-        <v>10.63551943852109</v>
+        <v>12.59120826723882</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.3713750019489</v>
+        <v>17.09158602086469</v>
       </c>
       <c r="F8">
-        <v>25.09325124926757</v>
+        <v>35.23119206321494</v>
       </c>
       <c r="G8">
-        <v>20.76870461893116</v>
+        <v>26.41905964712711</v>
       </c>
       <c r="H8">
-        <v>8.156673949458543</v>
+        <v>13.68625893321592</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.821959932131518</v>
+        <v>7.239166407569855</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.900799959721294</v>
+        <v>12.86211059859497</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.07702721838861</v>
+        <v>17.30057766251384</v>
       </c>
       <c r="O8">
-        <v>13.25988414725731</v>
+        <v>20.52282947464056</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.13521930541325</v>
+        <v>16.70976550838757</v>
       </c>
       <c r="C9">
-        <v>11.06225024795509</v>
+        <v>12.70038599166667</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.59596389682173</v>
+        <v>17.03226670233251</v>
       </c>
       <c r="F9">
-        <v>26.77117096170446</v>
+        <v>35.25607074764595</v>
       </c>
       <c r="G9">
-        <v>22.43778583010398</v>
+        <v>26.45607904505107</v>
       </c>
       <c r="H9">
-        <v>8.14993991982363</v>
+        <v>13.59274745024003</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.888763110379156</v>
+        <v>7.252384467586276</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.623813028168147</v>
+        <v>12.94942696543947</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.87406147049336</v>
+        <v>17.21433539402393</v>
       </c>
       <c r="O9">
-        <v>13.61710991402676</v>
+        <v>20.40351002551464</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.20304547208812</v>
+        <v>17.52155524986746</v>
       </c>
       <c r="C10">
-        <v>11.36940468607682</v>
+        <v>12.78189647515431</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.78682826734848</v>
+        <v>17.00081125793063</v>
       </c>
       <c r="F10">
-        <v>28.05106899395483</v>
+        <v>35.31640913608582</v>
       </c>
       <c r="G10">
-        <v>23.73059710795389</v>
+        <v>26.52963316975224</v>
       </c>
       <c r="H10">
-        <v>8.178591692783028</v>
+        <v>13.53547488161007</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.937995044590823</v>
+        <v>7.262384367438582</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.13770494564738</v>
+        <v>13.02121469309788</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.74451791266312</v>
+        <v>17.15942649704317</v>
       </c>
       <c r="O10">
-        <v>13.9464173281315</v>
+        <v>20.33956221177141</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.09244309451461</v>
+        <v>17.87969543203666</v>
       </c>
       <c r="C11">
-        <v>11.50734862476924</v>
+        <v>12.81919794873366</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.87933055935088</v>
+        <v>16.98912955362399</v>
       </c>
       <c r="F11">
-        <v>28.64159765601325</v>
+        <v>35.3529342562137</v>
       </c>
       <c r="G11">
-        <v>24.33115519685495</v>
+        <v>26.57312160091742</v>
       </c>
       <c r="H11">
-        <v>8.199631431279624</v>
+        <v>13.51190677926979</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.960402972217694</v>
+        <v>7.266993496238914</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.36684544413701</v>
+        <v>13.05545734762038</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.6901483592368</v>
+        <v>17.13627406032647</v>
       </c>
       <c r="O11">
-        <v>14.11139602676394</v>
+        <v>20.31565175644176</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.42193913138728</v>
+        <v>18.01359671421504</v>
       </c>
       <c r="C12">
-        <v>11.55929656028172</v>
+        <v>12.83334959802712</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.91517716951631</v>
+        <v>16.98508326269931</v>
       </c>
       <c r="F12">
-        <v>28.8662603499266</v>
+        <v>35.36806342509588</v>
       </c>
       <c r="G12">
-        <v>24.5602108274132</v>
+        <v>26.59102453283775</v>
       </c>
       <c r="H12">
-        <v>8.208807663806599</v>
+        <v>13.50333994487828</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.968888043473721</v>
+        <v>7.268747239631327</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.45288765403002</v>
+        <v>13.0686455188487</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.67024468817783</v>
+        <v>17.12776875948543</v>
       </c>
       <c r="O12">
-        <v>14.17609293958511</v>
+        <v>20.30734447694353</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.35129973948196</v>
+        <v>17.98483682354465</v>
       </c>
       <c r="C13">
-        <v>11.54812196116011</v>
+        <v>12.83030070187382</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.90742056585594</v>
+        <v>16.98593793179023</v>
       </c>
       <c r="F13">
-        <v>28.81783108976767</v>
+        <v>35.36474749520785</v>
       </c>
       <c r="G13">
-        <v>24.51080900954083</v>
+        <v>26.58710514293497</v>
       </c>
       <c r="H13">
-        <v>8.206776716379972</v>
+        <v>13.50516904098724</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.967060679027599</v>
+        <v>7.268369172015579</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.43439021327077</v>
+        <v>13.06579548319511</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.67450035009713</v>
+        <v>17.12958888301226</v>
       </c>
       <c r="O13">
-        <v>14.16205985182157</v>
+        <v>20.3091003381985</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.11969680373332</v>
+        <v>17.8907466333477</v>
       </c>
       <c r="C14">
-        <v>11.51162837024914</v>
+        <v>12.82036171633898</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.88226328230604</v>
+        <v>16.98878910412991</v>
       </c>
       <c r="F14">
-        <v>28.66006070778205</v>
+        <v>35.35415297722638</v>
       </c>
       <c r="G14">
-        <v>24.34996773544699</v>
+        <v>26.57456578004818</v>
       </c>
       <c r="H14">
-        <v>8.200361807679231</v>
+        <v>13.5111948052051</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.961101062519404</v>
+        <v>7.267137611706446</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.37393911004241</v>
+        <v>13.05653795297264</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.68849697071782</v>
+        <v>17.13556907577927</v>
       </c>
       <c r="O14">
-        <v>14.11667391737095</v>
+        <v>20.31495332681346</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.97688488508938</v>
+        <v>17.83288663845753</v>
       </c>
       <c r="C15">
-        <v>11.48923650968188</v>
+        <v>12.81427707280289</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.86696027619819</v>
+        <v>16.99058465039616</v>
       </c>
       <c r="F15">
-        <v>28.56355333190075</v>
+        <v>35.34783231207152</v>
       </c>
       <c r="G15">
-        <v>24.25165682077753</v>
+        <v>26.5670716574408</v>
       </c>
       <c r="H15">
-        <v>8.196591635067103</v>
+        <v>13.51493238225248</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.957450521537322</v>
+        <v>7.266384326629516</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.33681451952293</v>
+        <v>13.05089605012888</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.69716040316178</v>
+        <v>17.13926622411593</v>
       </c>
       <c r="O15">
-        <v>14.08916432619073</v>
+        <v>20.31863580682628</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.14389579130996</v>
+        <v>17.49791546095506</v>
       </c>
       <c r="C16">
-        <v>11.36035106644758</v>
+        <v>12.77946273109444</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.7808974307461</v>
+        <v>17.00162751512332</v>
       </c>
       <c r="F16">
-        <v>28.01263026347024</v>
+        <v>35.31420418741644</v>
       </c>
       <c r="G16">
-        <v>23.6915862561877</v>
+        <v>26.52699232704849</v>
       </c>
       <c r="H16">
-        <v>8.177382738385006</v>
+        <v>13.53706516870286</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.936530701113827</v>
+        <v>7.262084336101854</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.12263134270981</v>
+        <v>13.01900819089713</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.74816529430342</v>
+        <v>17.16097625872271</v>
       </c>
       <c r="O16">
-        <v>13.93594460106331</v>
+        <v>20.34122924437668</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.61980440946422</v>
+        <v>17.28948011273143</v>
       </c>
       <c r="C17">
-        <v>11.28080402621299</v>
+        <v>12.75815819076538</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.72955627125755</v>
+        <v>17.00907458815508</v>
       </c>
       <c r="F17">
-        <v>27.67666965157554</v>
+        <v>35.29589444411144</v>
       </c>
       <c r="G17">
-        <v>23.3510754266029</v>
+        <v>26.50496902704614</v>
       </c>
       <c r="H17">
-        <v>8.167690398734557</v>
+        <v>13.5512798590574</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.923698702240789</v>
+        <v>7.259461633079843</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.990003426225529</v>
+        <v>12.99984745834687</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.78064316741539</v>
+        <v>17.17476193133687</v>
       </c>
       <c r="O17">
-        <v>13.84586734435458</v>
+        <v>20.35641792750939</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.31353099200251</v>
+        <v>17.16855048833392</v>
       </c>
       <c r="C18">
-        <v>11.23488472458483</v>
+        <v>12.74592560712837</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.7005605455181</v>
+        <v>17.01360530025587</v>
       </c>
       <c r="F18">
-        <v>27.48422304215337</v>
+        <v>35.28621805132877</v>
       </c>
       <c r="G18">
-        <v>23.15640274324405</v>
+        <v>26.49324630055708</v>
       </c>
       <c r="H18">
-        <v>8.162865747420721</v>
+        <v>13.55968969002148</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.916319337266355</v>
+        <v>7.257958799843735</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.913286555122379</v>
+        <v>12.98897642618104</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.79975095247405</v>
+        <v>17.18286297886434</v>
       </c>
       <c r="O18">
-        <v>13.79548368421104</v>
+        <v>20.36564147879565</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.20900034832352</v>
+        <v>17.12743037063062</v>
       </c>
       <c r="C19">
-        <v>11.21930975038986</v>
+        <v>12.74178767734293</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.69083479635745</v>
+        <v>17.01518181896261</v>
       </c>
       <c r="F19">
-        <v>27.41920429353986</v>
+        <v>35.28308881982489</v>
       </c>
       <c r="G19">
-        <v>23.09069758214653</v>
+        <v>26.48943958699578</v>
       </c>
       <c r="H19">
-        <v>8.161359272851012</v>
+        <v>13.56257727461176</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.913821090151731</v>
+        <v>7.257450949660996</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.887239254637421</v>
+        <v>12.98532159952513</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.80629307250407</v>
+        <v>17.18563539377469</v>
       </c>
       <c r="O19">
-        <v>13.77866826451525</v>
+        <v>20.3688480569879</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.67609418919746</v>
+        <v>17.31177724893045</v>
       </c>
       <c r="C20">
-        <v>11.28928935907003</v>
+        <v>12.76042393866628</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.73496630638237</v>
+        <v>17.00825623793159</v>
       </c>
       <c r="F20">
-        <v>27.71235271083742</v>
+        <v>35.2977551187194</v>
       </c>
       <c r="G20">
-        <v>23.38720241638431</v>
+        <v>26.50721573850257</v>
       </c>
       <c r="H20">
-        <v>8.168644110222958</v>
+        <v>13.54974246787078</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.92506457473738</v>
+        <v>7.259740238839724</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.00416716789102</v>
+        <v>13.00187170496036</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.77714140761375</v>
+        <v>17.17327663657216</v>
       </c>
       <c r="O20">
-        <v>13.85530827708313</v>
+        <v>20.35475060266785</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.18792172070838</v>
+        <v>17.91843070627251</v>
       </c>
       <c r="C21">
-        <v>11.52235549665104</v>
+        <v>12.82328036533819</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.8896303786675</v>
+        <v>16.98794141000506</v>
       </c>
       <c r="F21">
-        <v>28.70637452687703</v>
+        <v>35.35722968479422</v>
       </c>
       <c r="G21">
-        <v>24.3971674045747</v>
+        <v>26.57821002397663</v>
       </c>
       <c r="H21">
-        <v>8.20221275409501</v>
+        <v>13.50941517527008</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.962851571686315</v>
+        <v>7.267499126012026</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.39171528274453</v>
+        <v>13.05925116601971</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.68436699231108</v>
+        <v>17.13380544115144</v>
       </c>
       <c r="O21">
-        <v>14.12994424130949</v>
+        <v>20.31321386975011</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.13347603109849</v>
+        <v>18.30485129300484</v>
       </c>
       <c r="C22">
-        <v>11.67298302697287</v>
+        <v>12.86451190547604</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.99548025018223</v>
+        <v>16.97686348373546</v>
       </c>
       <c r="F22">
-        <v>29.36204261510663</v>
+        <v>35.40366051453216</v>
       </c>
       <c r="G22">
-        <v>25.06672491841261</v>
+        <v>26.63296704272528</v>
       </c>
       <c r="H22">
-        <v>8.231224836615633</v>
+        <v>13.48514525085863</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.98754469756808</v>
+        <v>7.27261863990461</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.64073255881031</v>
+        <v>13.09803804901291</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.6277408793608</v>
+        <v>17.10953577188119</v>
       </c>
       <c r="O22">
-        <v>14.32240680305042</v>
+        <v>20.29042268099974</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.6326813571599</v>
+        <v>18.09956710452879</v>
       </c>
       <c r="C23">
-        <v>11.59275541977038</v>
+        <v>12.8424938557092</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.93854965056464</v>
+        <v>16.98257496848214</v>
       </c>
       <c r="F23">
-        <v>29.0115951397038</v>
+        <v>35.37819048106432</v>
       </c>
       <c r="G23">
-        <v>24.7085468204297</v>
+        <v>26.60298041631891</v>
       </c>
       <c r="H23">
-        <v>8.215074425216558</v>
+        <v>13.49790751555592</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.974366459122488</v>
+        <v>7.269881902610097</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.50823612403658</v>
+        <v>13.07722141226707</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.65758639337799</v>
+        <v>17.12234940123243</v>
       </c>
       <c r="O23">
-        <v>14.2184871673641</v>
+        <v>20.30218756895984</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.65066105417083</v>
+        <v>17.30170012277061</v>
       </c>
       <c r="C24">
-        <v>11.28545371898955</v>
+        <v>12.75939954478075</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.73251880686637</v>
+        <v>17.0086254375195</v>
       </c>
       <c r="F24">
-        <v>27.69621820270424</v>
+        <v>35.29691125912722</v>
       </c>
       <c r="G24">
-        <v>23.37086599254853</v>
+        <v>26.50619707555237</v>
       </c>
       <c r="H24">
-        <v>8.168210613016878</v>
+        <v>13.55043678229545</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.924447070097795</v>
+        <v>7.259614265597908</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.997765191036621</v>
+        <v>13.00095609174041</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.77872319790224</v>
+        <v>17.17394759167833</v>
       </c>
       <c r="O24">
-        <v>13.85103566467697</v>
+        <v>20.35550286979175</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.32778915093322</v>
+        <v>16.40177341572056</v>
       </c>
       <c r="C25">
-        <v>10.94778176508189</v>
+        <v>12.67060187297364</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.53069029470966</v>
+        <v>17.04618311658615</v>
       </c>
       <c r="F25">
-        <v>26.30827032517146</v>
+        <v>35.24193880756838</v>
       </c>
       <c r="G25">
-        <v>21.97384507635243</v>
+        <v>26.4379176356096</v>
       </c>
       <c r="H25">
-        <v>8.146101387919556</v>
+        <v>13.61603910398016</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.870657064301839</v>
+        <v>7.248757013194948</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.430926188566417</v>
+        <v>12.92444036844791</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.92563039321332</v>
+        <v>17.23617879178139</v>
       </c>
       <c r="O25">
-        <v>13.50897780586123</v>
+        <v>20.43163552828682</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_251/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_251/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.71019891993584</v>
+        <v>20.45551294564813</v>
       </c>
       <c r="C2">
-        <v>12.60612085043198</v>
+        <v>10.6950571434822</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>17.08198617088914</v>
+        <v>10.39944668335997</v>
       </c>
       <c r="F2">
-        <v>35.22975175446599</v>
+        <v>25.31886479486439</v>
       </c>
       <c r="G2">
-        <v>26.41881194302372</v>
+        <v>20.99082959675264</v>
       </c>
       <c r="H2">
-        <v>13.67201851351358</v>
+        <v>8.152118707676673</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.24095835845102</v>
+        <v>4.83116462699909</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.87326636577617</v>
+        <v>9.002321974066554</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.28768089724858</v>
+        <v>12.04682383596412</v>
       </c>
       <c r="O2">
-        <v>20.50361336558248</v>
+        <v>13.30179585662862</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.22634282696266</v>
+        <v>19.08420257834408</v>
       </c>
       <c r="C3">
-        <v>12.56307518449164</v>
+        <v>10.52190763232997</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.1113394368775</v>
+        <v>10.32118013810621</v>
       </c>
       <c r="F3">
-        <v>35.23918306540212</v>
+        <v>24.67191192642306</v>
       </c>
       <c r="G3">
-        <v>26.42529109241418</v>
+        <v>20.35644233241438</v>
       </c>
       <c r="H3">
-        <v>13.71473794688386</v>
+        <v>8.1690093791359</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.235799127588362</v>
+        <v>4.804502811715149</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.84191017979012</v>
+        <v>8.706509272896348</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.3261427164476</v>
+        <v>12.13666549825681</v>
       </c>
       <c r="O3">
-        <v>20.5622702292523</v>
+        <v>13.18796489305274</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.92288244016674</v>
+        <v>18.19121526029213</v>
       </c>
       <c r="C4">
-        <v>12.53699818222509</v>
+        <v>10.41491116530852</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>17.13187412044775</v>
+        <v>10.27832217718033</v>
       </c>
       <c r="F4">
-        <v>35.25370401714996</v>
+        <v>24.2874333907484</v>
       </c>
       <c r="G4">
-        <v>26.4388276588916</v>
+        <v>19.98373623133292</v>
       </c>
       <c r="H4">
-        <v>13.74332395013261</v>
+        <v>8.185336939860813</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.232694890052205</v>
+        <v>4.788193627397062</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.82432990772062</v>
+        <v>8.522893531971851</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.35151842529197</v>
+        <v>12.19550594065373</v>
       </c>
       <c r="O4">
-        <v>20.60313747116825</v>
+        <v>13.13067053177639</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.79780130592586</v>
+        <v>17.81442572723197</v>
       </c>
       <c r="C5">
-        <v>12.52646516292385</v>
+        <v>10.37117611582118</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17.14087394816019</v>
+        <v>10.26215226167389</v>
       </c>
       <c r="F5">
-        <v>35.2618166063728</v>
+        <v>24.13413026547653</v>
       </c>
       <c r="G5">
-        <v>26.44674228369536</v>
+        <v>19.83624361140044</v>
       </c>
       <c r="H5">
-        <v>13.75556504344364</v>
+        <v>8.193434796164896</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.23144610562865</v>
+        <v>4.781564585679916</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.81759120510813</v>
+        <v>8.447677204778072</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.36230249619365</v>
+        <v>12.22039131240074</v>
       </c>
       <c r="O5">
-        <v>20.62100809660506</v>
+        <v>13.11040637137403</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.77695163452194</v>
+        <v>17.75107966047372</v>
       </c>
       <c r="C6">
-        <v>12.52472195174953</v>
+        <v>10.36390704291712</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.14240652502939</v>
+        <v>10.25954507899627</v>
       </c>
       <c r="F6">
-        <v>35.26329625284674</v>
+        <v>24.1088830001135</v>
       </c>
       <c r="G6">
-        <v>26.44820116479796</v>
+        <v>19.81202200405582</v>
       </c>
       <c r="H6">
-        <v>13.75763341513389</v>
+        <v>8.194865109471532</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.231239732292885</v>
+        <v>4.780464917911572</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.81649807662219</v>
+        <v>8.435167261623537</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.36411997569092</v>
+        <v>12.22457783513976</v>
       </c>
       <c r="O6">
-        <v>20.62404890309713</v>
+        <v>13.1072251512731</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.92120104335626</v>
+        <v>18.18618602359711</v>
       </c>
       <c r="C7">
-        <v>12.53685574516385</v>
+        <v>10.41432182677831</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17.13199293700943</v>
+        <v>10.27809887806106</v>
       </c>
       <c r="F7">
-        <v>35.2538045391776</v>
+        <v>24.28535200927039</v>
       </c>
       <c r="G7">
-        <v>26.4389246957892</v>
+        <v>19.98172912528153</v>
       </c>
       <c r="H7">
-        <v>13.74348664108761</v>
+        <v>8.185440373169515</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.232677982534967</v>
+        <v>4.788104154485323</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.82423729864798</v>
+        <v>8.521880574580614</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.35166206735554</v>
+        <v>12.19583790123292</v>
       </c>
       <c r="O7">
-        <v>20.60337355778</v>
+        <v>13.13038487353674</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.54479329973182</v>
+        <v>19.99322946731809</v>
       </c>
       <c r="C8">
-        <v>12.59120826723882</v>
+        <v>10.63551943852109</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>17.09158602086469</v>
+        <v>10.37137500194884</v>
       </c>
       <c r="F8">
-        <v>35.23119206321494</v>
+        <v>25.09325124926762</v>
       </c>
       <c r="G8">
-        <v>26.41905964712711</v>
+        <v>20.76870461893114</v>
       </c>
       <c r="H8">
-        <v>13.68625893321592</v>
+        <v>8.156673949458547</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.239166407569855</v>
+        <v>4.821959932131351</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.86211059859497</v>
+        <v>8.900799959721253</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.30057766251384</v>
+        <v>12.07702721838861</v>
       </c>
       <c r="O8">
-        <v>20.52282947464056</v>
+        <v>13.25988414725731</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.70976550838757</v>
+        <v>23.13521930541319</v>
       </c>
       <c r="C9">
-        <v>12.70038599166667</v>
+        <v>11.06225024795522</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17.03226670233251</v>
+        <v>10.59596389682176</v>
       </c>
       <c r="F9">
-        <v>35.25607074764595</v>
+        <v>26.77117096170451</v>
       </c>
       <c r="G9">
-        <v>26.45607904505107</v>
+        <v>22.43778583010409</v>
       </c>
       <c r="H9">
-        <v>13.59274745024003</v>
+        <v>8.14993991982368</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.252384467586276</v>
+        <v>4.888763110379251</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.94942696543947</v>
+        <v>9.623813028168113</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.21433539402393</v>
+        <v>11.87406147049342</v>
       </c>
       <c r="O9">
-        <v>20.40351002551464</v>
+        <v>13.6171099140269</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.52155524986746</v>
+        <v>25.20304547208812</v>
       </c>
       <c r="C10">
-        <v>12.78189647515431</v>
+        <v>11.36940468607691</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.00081125793063</v>
+        <v>10.78682826734848</v>
       </c>
       <c r="F10">
-        <v>35.31640913608582</v>
+        <v>28.05106899395484</v>
       </c>
       <c r="G10">
-        <v>26.52963316975224</v>
+        <v>23.73059710795389</v>
       </c>
       <c r="H10">
-        <v>13.53547488161007</v>
+        <v>8.178591692783021</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.262384367438582</v>
+        <v>4.937995044590759</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.02121469309788</v>
+        <v>10.13770494564736</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.15942649704317</v>
+        <v>11.7445179126631</v>
       </c>
       <c r="O10">
-        <v>20.33956221177141</v>
+        <v>13.94641732813147</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.87969543203666</v>
+        <v>26.09244309451461</v>
       </c>
       <c r="C11">
-        <v>12.81919794873366</v>
+        <v>11.50734862476923</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.98912955362399</v>
+        <v>10.87933055935089</v>
       </c>
       <c r="F11">
-        <v>35.3529342562137</v>
+        <v>28.64159765601327</v>
       </c>
       <c r="G11">
-        <v>26.57312160091742</v>
+        <v>24.33115519685497</v>
       </c>
       <c r="H11">
-        <v>13.51190677926979</v>
+        <v>8.199631431279606</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.266993496238914</v>
+        <v>4.960402972217662</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.05545734762038</v>
+        <v>10.366845444137</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.13627406032647</v>
+        <v>11.69014835923684</v>
       </c>
       <c r="O11">
-        <v>20.31565175644176</v>
+        <v>14.11139602676394</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.01359671421504</v>
+        <v>26.42193913138721</v>
       </c>
       <c r="C12">
-        <v>12.83334959802712</v>
+        <v>11.55929656028203</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.98508326269931</v>
+        <v>10.91517716951638</v>
       </c>
       <c r="F12">
-        <v>35.36806342509588</v>
+        <v>28.86626034992666</v>
       </c>
       <c r="G12">
-        <v>26.59102453283775</v>
+        <v>24.56021082741316</v>
       </c>
       <c r="H12">
-        <v>13.50333994487828</v>
+        <v>8.208807663806642</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.268747239631327</v>
+        <v>4.968888043473788</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.0686455188487</v>
+        <v>10.45288765403001</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.12776875948543</v>
+        <v>11.6702446881779</v>
       </c>
       <c r="O12">
-        <v>20.30734447694353</v>
+        <v>14.17609293958513</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.98483682354465</v>
+        <v>26.35129973948195</v>
       </c>
       <c r="C13">
-        <v>12.83030070187382</v>
+        <v>11.54812196115989</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.98593793179023</v>
+        <v>10.90742056585599</v>
       </c>
       <c r="F13">
-        <v>35.36474749520785</v>
+        <v>28.8178310897677</v>
       </c>
       <c r="G13">
-        <v>26.58710514293497</v>
+        <v>24.51080900954083</v>
       </c>
       <c r="H13">
-        <v>13.50516904098724</v>
+        <v>8.206776716379979</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.268369172015579</v>
+        <v>4.967060679027599</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.06579548319511</v>
+        <v>10.4343902132708</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.12958888301226</v>
+        <v>11.67450035009707</v>
       </c>
       <c r="O13">
-        <v>20.3091003381985</v>
+        <v>14.16205985182157</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.8907466333477</v>
+        <v>26.11969680373331</v>
       </c>
       <c r="C14">
-        <v>12.82036171633898</v>
+        <v>11.51162837024883</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.98878910412991</v>
+        <v>10.88226328230601</v>
       </c>
       <c r="F14">
-        <v>35.35415297722638</v>
+        <v>28.66006070778211</v>
       </c>
       <c r="G14">
-        <v>26.57456578004818</v>
+        <v>24.34996773544706</v>
       </c>
       <c r="H14">
-        <v>13.5111948052051</v>
+        <v>8.200361807679322</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.267137611706446</v>
+        <v>4.961101062519438</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.05653795297264</v>
+        <v>10.37393911004244</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.13556907577927</v>
+        <v>11.68849697071784</v>
       </c>
       <c r="O14">
-        <v>20.31495332681346</v>
+        <v>14.11667391737103</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.83288663845753</v>
+        <v>25.97688488508943</v>
       </c>
       <c r="C15">
-        <v>12.81427707280289</v>
+        <v>11.48923650968189</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.99058465039616</v>
+        <v>10.86696027619816</v>
       </c>
       <c r="F15">
-        <v>35.34783231207152</v>
+        <v>28.56355333190076</v>
       </c>
       <c r="G15">
-        <v>26.5670716574408</v>
+        <v>24.25165682077751</v>
       </c>
       <c r="H15">
-        <v>13.51493238225248</v>
+        <v>8.196591635067065</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.266384326629516</v>
+        <v>4.957450521537165</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.05089605012888</v>
+        <v>10.33681451952291</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.13926622411593</v>
+        <v>11.69716040316171</v>
       </c>
       <c r="O15">
-        <v>20.31863580682628</v>
+        <v>14.08916432619067</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.49791546095506</v>
+        <v>25.14389579130991</v>
       </c>
       <c r="C16">
-        <v>12.77946273109444</v>
+        <v>11.36035106644769</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.00162751512332</v>
+        <v>10.78089743074612</v>
       </c>
       <c r="F16">
-        <v>35.31420418741644</v>
+        <v>28.01263026347028</v>
       </c>
       <c r="G16">
-        <v>26.52699232704849</v>
+        <v>23.6915862561877</v>
       </c>
       <c r="H16">
-        <v>13.53706516870286</v>
+        <v>8.177382738384997</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.262084336101854</v>
+        <v>4.936530701113762</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.01900819089713</v>
+        <v>10.12263134270981</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.16097625872271</v>
+        <v>11.74816529430342</v>
       </c>
       <c r="O16">
-        <v>20.34122924437668</v>
+        <v>13.9359446010633</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.28948011273143</v>
+        <v>24.61980440946427</v>
       </c>
       <c r="C17">
-        <v>12.75815819076538</v>
+        <v>11.2808040262131</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.00907458815508</v>
+        <v>10.72955627125758</v>
       </c>
       <c r="F17">
-        <v>35.29589444411144</v>
+        <v>27.67666965157549</v>
       </c>
       <c r="G17">
-        <v>26.50496902704614</v>
+        <v>23.35107542660276</v>
       </c>
       <c r="H17">
-        <v>13.5512798590574</v>
+        <v>8.167690398734509</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.259461633079843</v>
+        <v>4.923698702240693</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.99984745834687</v>
+        <v>9.990003426225554</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.17476193133687</v>
+        <v>11.78064316741527</v>
       </c>
       <c r="O17">
-        <v>20.35641792750939</v>
+        <v>13.84586734435445</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.16855048833392</v>
+        <v>24.31353099200254</v>
       </c>
       <c r="C18">
-        <v>12.74592560712837</v>
+        <v>11.23488472458461</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.01360530025587</v>
+        <v>10.70056054551825</v>
       </c>
       <c r="F18">
-        <v>35.28621805132877</v>
+        <v>27.48422304215348</v>
       </c>
       <c r="G18">
-        <v>26.49324630055708</v>
+        <v>23.15640274324405</v>
       </c>
       <c r="H18">
-        <v>13.55968969002148</v>
+        <v>8.162865747420762</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.257958799843735</v>
+        <v>4.916319337266359</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.98897642618104</v>
+        <v>9.913286555122445</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.18286297886434</v>
+        <v>11.79975095247409</v>
       </c>
       <c r="O18">
-        <v>20.36564147879565</v>
+        <v>13.79548368421106</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.12743037063062</v>
+        <v>24.20900034832351</v>
       </c>
       <c r="C19">
-        <v>12.74178767734293</v>
+        <v>11.21930975038995</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.01518181896261</v>
+        <v>10.69083479635748</v>
       </c>
       <c r="F19">
-        <v>35.28308881982489</v>
+        <v>27.4192042935399</v>
       </c>
       <c r="G19">
-        <v>26.48943958699578</v>
+        <v>23.09069758214657</v>
       </c>
       <c r="H19">
-        <v>13.56257727461176</v>
+        <v>8.161359272851019</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.257450949660996</v>
+        <v>4.913821090151728</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.98532159952513</v>
+        <v>9.887239254637374</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.18563539377469</v>
+        <v>11.80629307250409</v>
       </c>
       <c r="O19">
-        <v>20.3688480569879</v>
+        <v>13.77866826451529</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.31177724893045</v>
+        <v>24.67609418919749</v>
       </c>
       <c r="C20">
-        <v>12.76042393866628</v>
+        <v>11.28928935907005</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.00825623793159</v>
+        <v>10.73496630638229</v>
       </c>
       <c r="F20">
-        <v>35.2977551187194</v>
+        <v>27.71235271083742</v>
       </c>
       <c r="G20">
-        <v>26.50721573850257</v>
+        <v>23.38720241638437</v>
       </c>
       <c r="H20">
-        <v>13.54974246787078</v>
+        <v>8.168644110222923</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.259740238839724</v>
+        <v>4.925064574737385</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.00187170496036</v>
+        <v>10.00416716789098</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.17327663657216</v>
+        <v>11.77714140761371</v>
       </c>
       <c r="O20">
-        <v>20.35475060266785</v>
+        <v>13.85530827708311</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.91843070627251</v>
+        <v>26.18792172070844</v>
       </c>
       <c r="C21">
-        <v>12.82328036533819</v>
+        <v>11.52235549665072</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.98794141000506</v>
+        <v>10.88963037866742</v>
       </c>
       <c r="F21">
-        <v>35.35722968479422</v>
+        <v>28.70637452687699</v>
       </c>
       <c r="G21">
-        <v>26.57821002397663</v>
+        <v>24.39716740457468</v>
       </c>
       <c r="H21">
-        <v>13.50941517527008</v>
+        <v>8.20221275409501</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.267499126012026</v>
+        <v>4.962851571686284</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.05925116601971</v>
+        <v>10.3917152827445</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.13380544115144</v>
+        <v>11.68436699231105</v>
       </c>
       <c r="O21">
-        <v>20.31321386975011</v>
+        <v>14.12994424130948</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.30485129300484</v>
+        <v>27.13347603109852</v>
       </c>
       <c r="C22">
-        <v>12.86451190547604</v>
+        <v>11.67298302697286</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.97686348373546</v>
+        <v>10.99548025018223</v>
       </c>
       <c r="F22">
-        <v>35.40366051453216</v>
+        <v>29.36204261510667</v>
       </c>
       <c r="G22">
-        <v>26.63296704272528</v>
+        <v>25.06672491841261</v>
       </c>
       <c r="H22">
-        <v>13.48514525085863</v>
+        <v>8.23122483661564</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.27261863990461</v>
+        <v>4.987544697568084</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.09803804901291</v>
+        <v>10.64073255881029</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.10953577188119</v>
+        <v>11.62774087936082</v>
       </c>
       <c r="O22">
-        <v>20.29042268099974</v>
+        <v>14.32240680305042</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.09956710452879</v>
+        <v>26.63268135715991</v>
       </c>
       <c r="C23">
-        <v>12.8424938557092</v>
+        <v>11.59275541977027</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.98257496848214</v>
+        <v>10.93854965056462</v>
       </c>
       <c r="F23">
-        <v>35.37819048106432</v>
+        <v>29.01159513970379</v>
       </c>
       <c r="G23">
-        <v>26.60298041631891</v>
+        <v>24.70854682042972</v>
       </c>
       <c r="H23">
-        <v>13.49790751555592</v>
+        <v>8.215074425216603</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.269881902610097</v>
+        <v>4.974366459122519</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.07722141226707</v>
+        <v>10.5082361240366</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.12234940123243</v>
+        <v>11.65758639337799</v>
       </c>
       <c r="O23">
-        <v>20.30218756895984</v>
+        <v>14.21848716736411</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.30170012277061</v>
+        <v>24.65066105417077</v>
       </c>
       <c r="C24">
-        <v>12.75939954478075</v>
+        <v>11.28545371898955</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.0086254375195</v>
+        <v>10.73251880686646</v>
       </c>
       <c r="F24">
-        <v>35.29691125912722</v>
+        <v>27.69621820270435</v>
       </c>
       <c r="G24">
-        <v>26.50619707555237</v>
+        <v>23.37086599254864</v>
       </c>
       <c r="H24">
-        <v>13.55043678229545</v>
+        <v>8.168210613016958</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.259614265597908</v>
+        <v>4.924447070097862</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.00095609174041</v>
+        <v>9.99776519103664</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.17394759167833</v>
+        <v>11.77872319790237</v>
       </c>
       <c r="O24">
-        <v>20.35550286979175</v>
+        <v>13.85103566467709</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.40177341572056</v>
+        <v>22.32778915093328</v>
       </c>
       <c r="C25">
-        <v>12.67060187297364</v>
+        <v>10.94778176508166</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.04618311658615</v>
+        <v>10.53069029470957</v>
       </c>
       <c r="F25">
-        <v>35.24193880756838</v>
+        <v>26.30827032517143</v>
       </c>
       <c r="G25">
-        <v>26.4379176356096</v>
+        <v>21.97384507635247</v>
       </c>
       <c r="H25">
-        <v>13.61603910398016</v>
+        <v>8.146101387919517</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.248757013194948</v>
+        <v>4.87065706430174</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.92444036844791</v>
+        <v>9.43092618856641</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.23617879178139</v>
+        <v>11.92563039321332</v>
       </c>
       <c r="O25">
-        <v>20.43163552828682</v>
+        <v>13.50897780586121</v>
       </c>
     </row>
   </sheetData>
